--- a/surya_punctuation_4_16/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_16/surya_results_punctuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9252B-7817-4319-A511-86EAB825347E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95225742-50F6-4344-908D-16D8E640D27C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     This intercept value is nonsensical.</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{36E4C5D5-CA32-4AD8-AB0C-E11E9EE8B677}">
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{36E4C5D5-CA32-4AD8-AB0C-E11E9EE8B677}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
     This intercept value is nonsensical.</t>
       </text>
     </comment>
-    <comment ref="T6" authorId="2" shapeId="0" xr:uid="{448B0EDA-FD60-414E-B5B5-EB0940E2EF0B}">
+    <comment ref="V12" authorId="2" shapeId="0" xr:uid="{448B0EDA-FD60-414E-B5B5-EB0940E2EF0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
     There's an error (?).</t>
       </text>
     </comment>
-    <comment ref="F8" authorId="3" shapeId="0" xr:uid="{8839BA09-9E93-4123-BDCE-3C0E0817BD7E}">
+    <comment ref="F14" authorId="3" shapeId="0" xr:uid="{8839BA09-9E93-4123-BDCE-3C0E0817BD7E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
     This intercept value is nonsensical.</t>
       </text>
     </comment>
-    <comment ref="AG8" authorId="4" shapeId="0" xr:uid="{928E7E29-70AC-4F12-A8D5-058B2A8A3A80}">
+    <comment ref="AK14" authorId="4" shapeId="0" xr:uid="{928E7E29-70AC-4F12-A8D5-058B2A8A3A80}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>log_lik</t>
   </si>
@@ -181,9 +181,6 @@
     <t>tree</t>
   </si>
   <si>
-    <t>6-group</t>
-  </si>
-  <si>
     <t>molecular</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>South America</t>
   </si>
   <si>
-    <t>6-group: path ~ b0 + b1*node + b2 + b2*node + b3 + b3*node + b4 + b4*node + b5 + b5*node</t>
-  </si>
-  <si>
     <t>ref_continent</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>Intercept of the fit line of the reference continent</t>
   </si>
   <si>
-    <t>Slope of the fit line of the continent</t>
-  </si>
-  <si>
     <t>Intercept difference (relative to the reference; 2nd continent)</t>
   </si>
   <si>
@@ -356,6 +347,57 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>1-group + pop: path ~ b0 + b1*node + b2*pop_size</t>
+  </si>
+  <si>
+    <t>1-group x pop: path ~ b0 + b1*node + b2*pop_size + b3*node*pop_size</t>
+  </si>
+  <si>
+    <t>6-group (separate-slopes): path ~ b0 + b1*node + b2 + b2*node + b3 + b3*node + b4 + b4*node + b5 + b5*node</t>
+  </si>
+  <si>
+    <t>6-group (separate-slopes) + pop: path ~ b0 + b1*node + b2 + b2*node + b3 + b3*node + b4 + b4*node + b5 + b5*node + b6*pop_size</t>
+  </si>
+  <si>
+    <t>6-group (equal-slopes): path ~ b0 + b1*node + b2 + b3 + b4 + b5</t>
+  </si>
+  <si>
+    <t>6-group (separate-slopes) + pop</t>
+  </si>
+  <si>
+    <t>6-group (separate-slopes)</t>
+  </si>
+  <si>
+    <t>6-group (equal-slopes)</t>
+  </si>
+  <si>
+    <t>1-group + pop</t>
+  </si>
+  <si>
+    <t>1-group x pop</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>Beta of population size</t>
+  </si>
+  <si>
+    <t>Slope of the fit line of the reference continent OR beta of the reference continent when the model contains population size</t>
+  </si>
+  <si>
+    <t>Interaction between the number of nodes and population size</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
   </si>
 </sst>
 </file>
@@ -793,16 +835,16 @@
   <threadedComment ref="F2" dT="2020-04-30T17:22:29.93" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{06783A46-CE3C-47DF-9BA1-AB612B0AC7E4}">
     <text>This intercept value is nonsensical.</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2020-04-30T17:26:11.76" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{36E4C5D5-CA32-4AD8-AB0C-E11E9EE8B677}">
+  <threadedComment ref="F12" dT="2020-04-30T17:26:11.76" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{36E4C5D5-CA32-4AD8-AB0C-E11E9EE8B677}">
     <text>This intercept value is nonsensical.</text>
   </threadedComment>
-  <threadedComment ref="T6" dT="2020-04-30T17:23:22.23" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{448B0EDA-FD60-414E-B5B5-EB0940E2EF0B}">
+  <threadedComment ref="V12" dT="2020-04-30T17:23:22.23" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{448B0EDA-FD60-414E-B5B5-EB0940E2EF0B}">
     <text>There's an error (?).</text>
   </threadedComment>
-  <threadedComment ref="F8" dT="2020-04-30T18:06:23.24" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{8839BA09-9E93-4123-BDCE-3C0E0817BD7E}">
+  <threadedComment ref="F14" dT="2020-04-30T18:06:23.24" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{8839BA09-9E93-4123-BDCE-3C0E0817BD7E}">
     <text>This intercept value is nonsensical.</text>
   </threadedComment>
-  <threadedComment ref="AG8" dT="2020-04-30T17:59:03.60" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{928E7E29-70AC-4F12-A8D5-058B2A8A3A80}">
+  <threadedComment ref="AK14" dT="2020-04-30T17:59:03.60" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{928E7E29-70AC-4F12-A8D5-058B2A8A3A80}">
     <text>This log-likelihood value differs from the one for the regression with Africa as the reference continent.</text>
   </threadedComment>
 </ThreadedComments>
@@ -810,14 +852,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65725C74-E320-49C2-9041-7CC34A4B5CCC}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -858,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.6">
@@ -871,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.6">
@@ -881,174 +923,210 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1061,9 +1139,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACDFB8-7AE7-4540-B402-8A2C562F39AC}">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1073,7 +1151,7 @@
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
@@ -1089,26 +1167,32 @@
     <col min="15" max="15" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.86328125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="13.2265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.7265625" style="1"/>
+    <col min="26" max="26" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5.2265625" style="10" customWidth="1"/>
+    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -1117,140 +1201,154 @@
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="W1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AK1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="9">
         <v>6.359811760475</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="9">
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="9">
         <v>-11140.480453</v>
       </c>
-      <c r="AH2" s="9">
-        <f>(LN(3958)*2)-(2*AG2)</f>
+      <c r="AL2" s="9">
+        <f>(LN(3958)*2)-(2*AK2)</f>
         <v>22297.527894252325</v>
       </c>
-      <c r="AI2" s="9"/>
-    </row>
-    <row r="3" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AM2" s="9"/>
+    </row>
+    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -1258,34 +1356,34 @@
       <c r="F3" s="7">
         <v>7.3366135351509998</v>
       </c>
-      <c r="R3" s="9">
+      <c r="T3" s="9">
         <v>1164.5512485325801</v>
       </c>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="7">
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="7">
         <v>-19588.078933000001</v>
       </c>
-      <c r="AH3" s="7">
-        <f>(LN(3958)*2)-(2*AG3)</f>
+      <c r="AL3" s="7">
+        <f>(LN(3958)*2)-(2*AK3)</f>
         <v>39192.724854252323</v>
       </c>
-      <c r="AI3" s="7">
-        <f>AH3-AH7</f>
+      <c r="AM3" s="7">
+        <f>AL3-AL13</f>
         <v>6417.1059326122122</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -1293,39 +1391,41 @@
       <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="9">
         <v>6.3582049358769996</v>
       </c>
-      <c r="S4" s="9">
-        <v>0</v>
-      </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG4" s="9">
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK4" s="9">
         <v>-11140.480453</v>
       </c>
-      <c r="AH4" s="9">
-        <f>(LN(3958)*3)-(2*AG4)</f>
+      <c r="AL4" s="9">
+        <f>(LN(3958)*3)-(2*AK4)</f>
         <v>22305.811388378486</v>
       </c>
-      <c r="AI4" s="9"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.6">
+      <c r="AM4" s="9"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -1336,1632 +1436,2301 @@
       <c r="G5" s="3">
         <v>-6.2816160489999995E-2</v>
       </c>
-      <c r="R5" s="9">
+      <c r="T5" s="9">
         <v>1089.1913064759599</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>6.4479008544000002E-2</v>
       </c>
-      <c r="T5" s="14">
+      <c r="V5" s="14">
         <v>6.3528000000000001E-2</v>
       </c>
-      <c r="U5" s="17">
+      <c r="W5" s="17">
         <v>3.803E-3</v>
       </c>
-      <c r="AF5" s="13">
-        <f t="shared" ref="AF5:AF17" si="0">TDIST((ABS(G5)/U5),3957,1)</f>
+      <c r="AJ5" s="13">
+        <f t="shared" ref="AJ5:AJ25" si="0">TDIST((ABS(G5)/W5),3957,1)</f>
         <v>1.2733305792861355E-59</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AK5" s="7">
         <v>-19456.183266</v>
       </c>
-      <c r="AH5" s="3">
-        <f>(LN(3958)*3)-(2*AG5)</f>
+      <c r="AL5" s="3">
+        <f>(LN(3958)*3)-(2*AK5)</f>
         <v>38937.21701437849</v>
       </c>
-      <c r="AI5" s="7">
-        <f>AH5-AH7</f>
+      <c r="AM5" s="7">
+        <f>AL5-AL13</f>
         <v>6161.5980927383789</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9">
+        <v>6.3582049358769996</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>-11140.480453</v>
+      </c>
+      <c r="AL6" s="9">
+        <f>(LN(3958)*3)-(2*AK6)</f>
+        <v>22305.811388378486</v>
+      </c>
+      <c r="AM6" s="9"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
+      <c r="A7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>11.284230958005001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-0.157338938899</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="R7" s="7">
+        <v>-1.705E-9</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="9">
+        <v>767.98358453502897</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.340424153821</v>
+      </c>
+      <c r="V7" s="14">
+        <v>8.9116000000000001E-2</v>
+      </c>
+      <c r="W7" s="17">
+        <v>3.9490000000000003E-3</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7350871431223462E-292</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>-18764.676296000001</v>
+      </c>
+      <c r="AL7" s="3">
+        <f>(LN(3958)*4)-(2*AK7)</f>
+        <v>37562.486568504653</v>
+      </c>
+      <c r="AM7" s="7">
+        <f>AL7-AL13</f>
+        <v>4786.8676468645426</v>
+      </c>
+      <c r="AN7" s="3"/>
+    </row>
+    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>6.3582049358769996</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>-11140.480453</v>
+      </c>
+      <c r="AL8" s="9">
+        <f>(LN(3958)*5)-(2*AK8)</f>
+        <v>22322.378376630812</v>
+      </c>
+      <c r="AM8" s="9"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
+      <c r="A9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>13.201109271227001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-0.36784088686700001</v>
+      </c>
+      <c r="R9" s="7">
+        <v>-4.01E-9</v>
+      </c>
+      <c r="S9" s="7">
+        <v>2.7299999999999999E-10</v>
+      </c>
+      <c r="T9" s="9">
+        <v>526.45869845365303</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.54793623870399999</v>
+      </c>
+      <c r="V9" s="14">
+        <v>8.6418999999999996E-2</v>
+      </c>
+      <c r="W9" s="17">
+        <v>5.9249999999999997E-3</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>-18017.414850000001</v>
+      </c>
+      <c r="AL9" s="3">
+        <f>(LN(3958)*5)-(2*AK9)</f>
+        <v>36076.247170630813</v>
+      </c>
+      <c r="AM9" s="7">
+        <f>AL9-AL13</f>
+        <v>3300.6282489907026</v>
+      </c>
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-0.188942814954</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.188942814954</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
+        <v>0.188942814954</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
+        <v>0.188942814954</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9">
+        <v>5.4045946945459997</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
+        <v>6.1842675959119999</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="T10" s="9">
+        <v>6.024422994789</v>
+      </c>
+      <c r="U10" s="9">
+        <v>5.2503499393000003E-2</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W10" s="14">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0.37487799999999999</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14">
+        <v>0.91162699999999997</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>-11033.764088</v>
+      </c>
+      <c r="AL10" s="9">
+        <f>(LN(3958)*8)-(2*AK10)</f>
+        <v>22133.796129009301</v>
+      </c>
+      <c r="AM10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
+      <c r="A11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>11.658212090464</v>
+      </c>
+      <c r="G11" s="7">
+        <v>-0.19553429838399999</v>
+      </c>
+      <c r="H11" s="9">
+        <v>-7.0565106709840002</v>
+      </c>
+      <c r="J11" s="9">
+        <v>-0.31790464663200002</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
+        <v>-1.239409671107</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
+        <v>-2.9939461980900002</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9">
+        <v>-12.185493949692001</v>
+      </c>
+      <c r="T11" s="9">
+        <v>600.71765697913804</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.48425730280200002</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0.79459800000000003</v>
+      </c>
+      <c r="W11" s="14">
+        <v>7.1859999999999997E-3</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0.82263200000000003</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0.79957199999999995</v>
+      </c>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14">
+        <v>0.778196</v>
+      </c>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14">
+        <v>0.80679599999999996</v>
+      </c>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14">
+        <v>2.2325849999999998</v>
+      </c>
+      <c r="AJ11" s="13">
+        <f t="shared" si="0"/>
+        <v>6.6040727230367011E-150</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>-18278.548159999998</v>
+      </c>
+      <c r="AL11" s="7">
+        <f>(LN(3958)*8)-(2*AK11)</f>
+        <v>36623.364273009298</v>
+      </c>
+      <c r="AM11" s="7">
+        <f>AL11-AL13</f>
+        <v>3847.7453513691871</v>
+      </c>
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="9">
         <v>0.266589886655</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G12" s="9">
         <v>-2.0743056464000001E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H12" s="9">
         <v>-0.266589886655</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I12" s="9">
         <v>2.0743056464000001E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J12" s="9">
         <v>-0.266589886655</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K12" s="9">
         <v>2.0743056464000001E-2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L12" s="9">
         <v>-0.266589886655</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M12" s="9">
         <v>2.0743056464000001E-2</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N12" s="9">
         <v>5.3469312894319998</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O12" s="9">
         <v>-6.0305291710000004E-3</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P12" s="9">
         <v>10.343224990671001</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q12" s="9">
         <v>-0.28823097380200002</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="9">
         <v>6.0140078782849997</v>
       </c>
-      <c r="S6" s="9">
+      <c r="U12" s="9">
         <v>5.4135907084999997E-2</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" s="14">
+      <c r="V12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" s="14">
         <v>7.5719999999999997E-3</v>
       </c>
-      <c r="V6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W6" s="14">
+      <c r="X12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" s="14">
         <v>7.5719999999999997E-3</v>
       </c>
-      <c r="X6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" s="14">
+      <c r="Z12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" s="14">
         <v>7.5719999999999997E-3</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA6" s="14">
+      <c r="AB12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" s="14">
         <v>7.5719999999999997E-3</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AD12" s="14">
         <v>1.088973</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AE12" s="14">
         <v>7.4084999999999998E-2</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AF12" s="14">
         <v>2.470491</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AG12" s="14">
         <v>0.15556400000000001</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="16">
         <f t="shared" si="0"/>
         <v>3.0909694490500123E-3</v>
       </c>
-      <c r="AG6" s="9">
+      <c r="AK12" s="9">
         <v>-11030.339801</v>
       </c>
-      <c r="AH6" s="9">
-        <f>(LN(3958)*13)-(2*AG6)</f>
+      <c r="AL12" s="9">
+        <f>(LN(3958)*13)-(2*AK12)</f>
         <v>22168.365025640112</v>
       </c>
-      <c r="AI6" s="9"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="AM12" s="9"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
+      <c r="A13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7.3991171203089996</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.24423155526199999</v>
+      </c>
+      <c r="H13" s="9">
+        <v>-9.791727761272</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.56750979506599997</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5.8400143422189998</v>
+      </c>
+      <c r="K13" s="9">
+        <v>-0.60345580149400002</v>
+      </c>
+      <c r="L13" s="9">
+        <v>-4.5242443539900004</v>
+      </c>
+      <c r="M13" s="9">
+        <v>3.0089949243E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>14.659197060624001</v>
+      </c>
+      <c r="O13" s="9">
+        <v>-1.2369671065750001</v>
+      </c>
+      <c r="P13" s="9">
+        <v>31.184385996136999</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>-4.6926654601119999</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="9">
+        <v>224.86876049770001</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.80754453441899998</v>
+      </c>
+      <c r="V13" s="14">
+        <v>1.715854</v>
+      </c>
+      <c r="W13" s="12">
+        <v>9.2465000000000006E-2</v>
+      </c>
+      <c r="X13" s="14">
+        <v>1.7660149999999999</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>9.8353999999999997E-2</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>1.7685</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>9.5913999999999999E-2</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>1.7177309999999999</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>9.1939000000000007E-2</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>2.2504729999999999</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0.13330800000000001</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>3.6154570000000001</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0.29263899999999998</v>
+      </c>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="13">
+        <f t="shared" ref="AJ13" si="1">TDIST((ABS(G13)/W13),3957,1)</f>
+        <v>4.1451711243693599E-3</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>-16333.966748999999</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" ref="AL13:AL23" si="2">(LN(3958)*13)-(2*AK13)</f>
+        <v>32775.618921640111</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>7.3991171203089996</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.24423155526199999</v>
-      </c>
-      <c r="H7" s="9">
-        <v>-9.791727761272</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.56750979506599997</v>
-      </c>
-      <c r="J7" s="9">
-        <v>5.8400143422189998</v>
-      </c>
-      <c r="K7" s="9">
-        <v>-0.60345580149400002</v>
-      </c>
-      <c r="L7" s="9">
-        <v>-4.5242443539900004</v>
-      </c>
-      <c r="M7" s="9">
-        <v>3.0089949243E-2</v>
-      </c>
-      <c r="N7" s="9">
-        <v>14.659197060624001</v>
-      </c>
-      <c r="O7" s="9">
-        <v>-1.2369671065750001</v>
-      </c>
-      <c r="P7" s="9">
-        <v>31.184385996136999</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>-4.6926654601119999</v>
-      </c>
-      <c r="R7" s="9">
-        <v>224.86876049770001</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0.80754453441899998</v>
-      </c>
-      <c r="T7" s="14">
-        <v>1.715854</v>
-      </c>
-      <c r="U7" s="12">
-        <v>9.2465000000000006E-2</v>
-      </c>
-      <c r="V7" s="14">
-        <v>1.7660149999999999</v>
-      </c>
-      <c r="W7" s="14">
-        <v>9.8353999999999997E-2</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1.7685</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>9.5913999999999999E-2</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1.7177309999999999</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>9.1939000000000007E-2</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>2.2504729999999999</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>0.13330800000000001</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>3.6154570000000001</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>0.29263899999999998</v>
-      </c>
-      <c r="AF7" s="13">
-        <f t="shared" ref="AF7" si="1">TDIST((ABS(G7)/U7),3957,1)</f>
-        <v>4.1451711243693599E-3</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>-16333.966748999999</v>
-      </c>
-      <c r="AH7" s="3">
-        <f t="shared" ref="AH7:AH17" si="2">(LN(3958)*13)-(2*AG7)</f>
-        <v>32775.618921640111</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="E14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <v>10.818774532642999</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I14" s="9">
         <v>-0.21194341379000001</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
         <v>5.6134993567920004</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O14" s="9">
         <v>-2.6766659995999999E-2</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P14" s="9">
         <v>10.610038898372</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q14" s="9">
         <v>-0.30897832211600001</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="9">
         <v>5.8631442570579999</v>
       </c>
-      <c r="S8" s="9">
+      <c r="U14" s="9">
         <v>7.7861705279000007E-2</v>
       </c>
-      <c r="T8" s="14">
-        <v>0</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
         <v>2.1704569999999999</v>
       </c>
-      <c r="W8" s="14">
+      <c r="Y14" s="14">
         <v>0.112132</v>
       </c>
-      <c r="X8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
         <v>1.07927</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AE14" s="14">
         <v>6.7932999999999993E-2</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AF14" s="14">
         <v>2.4609070000000002</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AG14" s="14">
         <v>0.15323899999999999</v>
       </c>
-      <c r="AF8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG8" s="10">
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK14" s="10">
         <v>-10980.062569</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AL14" s="9">
         <f t="shared" si="2"/>
         <v>22067.810561640112</v>
       </c>
-      <c r="AI8" s="9"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="AM14" s="9"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.6">
+      <c r="A15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F15" s="7">
         <v>-2.3926106464529999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G15" s="7">
         <v>0.81174135128900005</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H15" s="9">
         <v>9.7917277660890001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I15" s="9">
         <v>-0.567509795983</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J15" s="9">
         <v>15.631742107718001</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K15" s="9">
         <v>-1.1709655974519999</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L15" s="9">
         <v>5.2674834109999997</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M15" s="9">
         <v>-0.53741984667300002</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N15" s="9">
         <v>24.450924822704</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O15" s="9">
         <v>-1.8044769022230001</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P15" s="9">
         <v>40.976113766198999</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q15" s="9">
         <v>-5.2601752565610003</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="9">
         <v>224.86876049921599</v>
       </c>
-      <c r="S9" s="6">
+      <c r="U15" s="6">
         <v>0.807544534418</v>
       </c>
-      <c r="T9" s="14">
+      <c r="V15" s="14">
         <v>0.30120799999999998</v>
       </c>
-      <c r="U9" s="12">
+      <c r="W15" s="12">
         <v>3.2058000000000003E-2</v>
       </c>
-      <c r="V9" s="14">
+      <c r="X15" s="14">
         <v>1.7660149999999999</v>
       </c>
-      <c r="W9" s="14">
+      <c r="Y15" s="14">
         <v>9.8353999999999997E-2</v>
       </c>
-      <c r="X9" s="14">
+      <c r="Z15" s="14">
         <v>0.29065800000000003</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="AA15" s="14">
         <v>3.1474000000000002E-2</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="AB15" s="14">
         <v>0.413609</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AC15" s="14">
         <v>3.6948000000000002E-2</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AD15" s="14">
         <v>1.1156740000000001</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AE15" s="14">
         <v>8.745E-2</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AF15" s="14">
         <v>3.5828859999999998</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AG15" s="14">
         <v>0.29726900000000001</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="13">
         <f t="shared" si="0"/>
         <v>1.5723511898545553E-131</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AK15" s="6">
         <v>-16333.966748999999</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AL15" s="3">
         <f t="shared" si="2"/>
         <v>32775.618921640111</v>
       </c>
-      <c r="AI9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="AM15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="D16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
         <v>10.818774532642999</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I16" s="9">
         <v>-0.21194341379000001</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
         <v>5.6134993567920004</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O16" s="9">
         <v>-2.6766659995999999E-2</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P16" s="9">
         <v>10.610038898372</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q16" s="9">
         <v>-0.30897832211600001</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="9">
         <v>5.8631442570579999</v>
       </c>
-      <c r="S10" s="9">
+      <c r="U16" s="9">
         <v>7.7861705279000007E-2</v>
       </c>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
         <v>2.1704569999999999</v>
       </c>
-      <c r="W10" s="14">
+      <c r="Y16" s="14">
         <v>0.112132</v>
       </c>
-      <c r="X10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="14">
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
         <v>1.07927</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AE16" s="14">
         <v>6.7932999999999993E-2</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AF16" s="14">
         <v>2.4609070000000002</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AG16" s="14">
         <v>0.15323899999999999</v>
       </c>
-      <c r="AF10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG10" s="10">
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK16" s="10">
         <v>-10980.062569</v>
       </c>
-      <c r="AH10" s="9">
+      <c r="AL16" s="9">
         <f t="shared" si="2"/>
         <v>22067.810561640112</v>
       </c>
-      <c r="AI10" s="9"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="AM16" s="9"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F17" s="7">
         <v>13.239131460533001</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G17" s="7">
         <v>-0.359224246134</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H17" s="9">
         <v>-5.8400143352049998</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I17" s="9">
         <v>0.60345580117200004</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J17" s="9">
         <v>-15.631742110667</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K17" s="9">
         <v>1.1709655978010001</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L17" s="9">
         <v>-10.364258694997</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M17" s="9">
         <v>0.63354575069499997</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N17" s="9">
         <v>8.8191827190640009</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O17" s="9">
         <v>-0.633511305064</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P17" s="9">
         <v>25.344371661602001</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q17" s="9">
         <v>-4.089209658963</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="9">
         <v>224.86876049739499</v>
       </c>
-      <c r="S11" s="6">
+      <c r="U17" s="6">
         <v>0.80754453441899998</v>
       </c>
-      <c r="T11" s="14">
+      <c r="V17" s="14">
         <v>0.13195799999999999</v>
       </c>
-      <c r="U11" s="12">
+      <c r="W17" s="12">
         <v>7.2020000000000001E-3</v>
       </c>
-      <c r="V11" s="14">
+      <c r="X17" s="14">
         <v>1.7685</v>
       </c>
-      <c r="W11" s="14">
+      <c r="Y17" s="14">
         <v>9.5913999999999999E-2</v>
       </c>
-      <c r="X11" s="14">
+      <c r="Z17" s="14">
         <v>0.29065800000000003</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="AA17" s="14">
         <v>3.1474000000000002E-2</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="AB17" s="14">
         <v>0.218917</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AC17" s="14">
         <v>1.2992E-2</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AD17" s="14">
         <v>0.98018799999999995</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AE17" s="14">
         <v>7.4033000000000002E-2</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AF17" s="14">
         <v>3.6607159999999999</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AG17" s="14">
         <v>0.30050500000000002</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AK17" s="6">
         <v>-16333.966748999999</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AL17" s="3">
         <f t="shared" si="2"/>
         <v>32775.618921640111</v>
       </c>
-      <c r="AI11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="AM17" s="7"/>
+    </row>
+    <row r="18" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="D18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
         <v>10.818774532642999</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I18" s="9">
         <v>-0.21194341379000001</v>
       </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
         <v>5.6134993567920004</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O18" s="9">
         <v>-2.6766659995999999E-2</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P18" s="9">
         <v>10.610038898372</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q18" s="9">
         <v>-0.30897832211600001</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="9">
         <v>5.8631442570579999</v>
       </c>
-      <c r="S12" s="9">
+      <c r="U18" s="9">
         <v>7.7861705279000007E-2</v>
       </c>
-      <c r="T12" s="14">
-        <v>0</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
-      <c r="V12" s="14">
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
         <v>2.1704569999999999</v>
       </c>
-      <c r="W12" s="14">
+      <c r="Y18" s="14">
         <v>0.112132</v>
       </c>
-      <c r="X12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="14">
+      <c r="Z18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
         <v>1.07927</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AE18" s="14">
         <v>6.7932999999999993E-2</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AF18" s="14">
         <v>2.4609070000000002</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AG18" s="14">
         <v>0.15323899999999999</v>
       </c>
-      <c r="AF12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG12" s="10">
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK18" s="10">
         <v>-10980.062569</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AL18" s="9">
         <f t="shared" si="2"/>
         <v>22067.810561640112</v>
       </c>
-      <c r="AI12" s="9"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="AM18" s="9"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F19" s="7">
         <v>2.8748727656709998</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G19" s="7">
         <v>0.27432150455400001</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H19" s="9">
         <v>4.5242443566389996</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I19" s="9">
         <v>-3.0089949354999999E-2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J19" s="9">
         <v>-5.2674834156459998</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K19" s="9">
         <v>0.53741984709699997</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L19" s="9">
         <v>10.364258695256</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M19" s="9">
         <v>-0.63354575070800001</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N19" s="9">
         <v>19.183441414169</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O19" s="9">
         <v>-1.267057055774</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P19" s="9">
         <v>35.708630350200004</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q19" s="9">
         <v>-4.7227554093590003</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="9">
         <v>224.868760497686</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U19" s="6">
         <v>0.80754453441899998</v>
       </c>
-      <c r="T13" s="14">
+      <c r="V19" s="14">
         <v>0.17748700000000001</v>
       </c>
-      <c r="U13" s="12">
+      <c r="W19" s="12">
         <v>1.0163999999999999E-2</v>
       </c>
-      <c r="V13" s="14">
+      <c r="X19" s="14">
         <v>1.7177309999999999</v>
       </c>
-      <c r="W13" s="14">
+      <c r="Y19" s="14">
         <v>9.1939000000000007E-2</v>
       </c>
-      <c r="X13" s="14">
+      <c r="Z19" s="14">
         <v>0.413609</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="AA19" s="14">
         <v>3.6948000000000002E-2</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AB19" s="14">
         <v>0.218917</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AC19" s="14">
         <v>1.2992E-2</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AD19" s="14">
         <v>0.97855800000000004</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AE19" s="14">
         <v>7.3640999999999998E-2</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AF19" s="14">
         <v>3.6241409999999998</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AG19" s="14">
         <v>0.29885299999999998</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="13">
         <f t="shared" si="0"/>
         <v>1.037361845050249E-147</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AK19" s="6">
         <v>-16333.966748999999</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AL19" s="3">
         <f t="shared" si="2"/>
         <v>32775.618921640111</v>
       </c>
-      <c r="AI13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="AM19" s="7"/>
+    </row>
+    <row r="20" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="9">
         <v>-1.244540593393</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G20" s="9">
         <v>4.899430816E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H20" s="9">
         <v>12.063101144556001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I20" s="9">
         <v>-0.260938035402</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J20" s="9">
         <v>1.244540593393</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K20" s="9">
         <v>-4.899430816E-2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L20" s="9">
         <v>1.244540593393</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M20" s="9">
         <v>-4.899430816E-2</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N20" s="9">
         <v>1.244540593393</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O20" s="9">
         <v>-4.899430816E-2</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P20" s="9">
         <v>11.854291314604</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q20" s="9">
         <v>-0.35796631192799999</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="9">
         <v>6.1990290496849996</v>
       </c>
-      <c r="S14" s="9">
+      <c r="U20" s="9">
         <v>2.5729044592000001E-2</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="U14" s="14">
+      <c r="V20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W20" s="14">
         <v>7.1110000000000001E-3</v>
       </c>
-      <c r="V14" s="14">
+      <c r="X20" s="14">
         <v>2.2292160000000001</v>
       </c>
-      <c r="W14" s="14">
+      <c r="Y20" s="14">
         <v>0.115518</v>
       </c>
-      <c r="X14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y14" s="14">
+      <c r="Z20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20" s="14">
         <v>7.1110000000000001E-3</v>
       </c>
-      <c r="Z14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA14" s="14">
+      <c r="AB20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC20" s="14">
         <v>7.1110000000000001E-3</v>
       </c>
-      <c r="AB14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC14" s="14">
+      <c r="AD20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20" s="14">
         <v>7.1110000000000001E-3</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AF20" s="14">
         <v>2.5207769999999998</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AG20" s="14">
         <v>0.16541900000000001</v>
       </c>
-      <c r="AF14" s="16">
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="16">
         <f t="shared" si="0"/>
         <v>3.2334077389298879E-12</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AK20" s="10">
         <v>-11090.306035</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AL20" s="9">
         <f t="shared" si="2"/>
         <v>22288.297493640111</v>
       </c>
-      <c r="AI14" s="9"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="AM20" s="9"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F21" s="7">
         <v>22.058314121794002</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G21" s="7">
         <v>-0.99273554696300004</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H21" s="9">
         <v>-14.659196996828999</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I21" s="9">
         <v>1.236967101853</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J21" s="9">
         <v>-24.450924767414001</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K21" s="9">
         <v>1.804476898244</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L21" s="9">
         <v>-8.8191826625259999</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M21" s="9">
         <v>0.63351130086100005</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N21" s="9">
         <v>-19.183441358153001</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O21" s="9">
         <v>1.2670570515690001</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P21" s="9">
         <v>16.525189068401001</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q21" s="9">
         <v>-3.4556983624209998</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="9">
         <v>224.86876050874</v>
       </c>
-      <c r="S15" s="6">
+      <c r="U21" s="6">
         <v>0.807544534408</v>
       </c>
-      <c r="T15" s="14">
+      <c r="V21" s="14">
         <v>0.98898299999999995</v>
       </c>
-      <c r="U15" s="12">
+      <c r="W21" s="12">
         <v>7.4048000000000003E-2</v>
       </c>
-      <c r="V15" s="14">
+      <c r="X21" s="14">
         <v>2.2504729999999999</v>
       </c>
-      <c r="W15" s="14">
+      <c r="Y21" s="14">
         <v>0.13330800000000001</v>
       </c>
-      <c r="X15" s="14">
+      <c r="Z21" s="14">
         <v>1.1156740000000001</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="AA21" s="14">
         <v>8.745E-2</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AB21" s="14">
         <v>0.98018799999999995</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="AC21" s="14">
         <v>7.4033000000000002E-2</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AD21" s="14">
         <v>0.97855800000000004</v>
       </c>
-      <c r="AC15" s="14">
+      <c r="AE21" s="14">
         <v>7.3640999999999998E-2</v>
       </c>
-      <c r="AD15" s="14">
+      <c r="AF21" s="14">
         <v>4.0489980000000001</v>
       </c>
-      <c r="AE15" s="14">
+      <c r="AG21" s="14">
         <v>0.33102700000000002</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="13">
         <f t="shared" si="0"/>
         <v>2.0493816263197046E-40</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AK21" s="6">
         <v>-16333.966748999999</v>
       </c>
-      <c r="AH15" s="3">
+      <c r="AL21" s="3">
         <f t="shared" si="2"/>
         <v>32775.618921640111</v>
       </c>
-      <c r="AI15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="AM21" s="7"/>
+    </row>
+    <row r="22" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="9">
         <v>-0.32263351431499998</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G22" s="9">
         <v>1.8592231051E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H22" s="9">
         <v>11.141325898903</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I22" s="9">
         <v>-0.230536010328</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J22" s="9">
         <v>0.32263351431499998</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K22" s="9">
         <v>-1.8592231051E-2</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L22" s="9">
         <v>0.32263351431499998</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M22" s="9">
         <v>-1.8592231051E-2</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N22" s="9">
         <v>0.32263351431499998</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O22" s="9">
         <v>-1.8592231051E-2</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P22" s="9">
         <v>5.9361308848150003</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q22" s="9">
         <v>-4.5361426496000001E-2</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="9">
         <v>5.9359605787099996</v>
       </c>
-      <c r="S16" s="9">
+      <c r="U22" s="9">
         <v>6.6409650284000005E-2</v>
       </c>
-      <c r="T16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="U16" s="14">
+      <c r="V22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W22" s="14">
         <v>7.4580000000000002E-3</v>
       </c>
-      <c r="V16" s="14">
+      <c r="X22" s="14">
         <v>2.1815989999999998</v>
       </c>
-      <c r="W16" s="14">
+      <c r="Y22" s="14">
         <v>0.11307200000000001</v>
       </c>
-      <c r="X16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y16" s="14">
+      <c r="Z22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA22" s="14">
         <v>7.4580000000000002E-3</v>
       </c>
-      <c r="Z16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA16" s="14">
+      <c r="AB22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC22" s="14">
         <v>7.4580000000000002E-3</v>
       </c>
-      <c r="AB16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC16" s="14">
+      <c r="AD22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE22" s="14">
         <v>7.4580000000000002E-3</v>
       </c>
-      <c r="AD16" s="14">
+      <c r="AF22" s="14">
         <v>1.079647</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AG22" s="14">
         <v>7.2367000000000001E-2</v>
       </c>
-      <c r="AF16" s="16">
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="16">
         <f t="shared" si="0"/>
         <v>6.3550737978396738E-3</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AK22" s="10">
         <v>-11004.489055</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AL22" s="9">
         <f t="shared" si="2"/>
         <v>22116.663533640112</v>
       </c>
-      <c r="AI16" s="9"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="AM22" s="9"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F23" s="7">
         <v>38.583500810898997</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G23" s="7">
         <v>-4.448433729704</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H23" s="9">
         <v>-31.184382484294002</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I23" s="9">
         <v>4.6926652250109999</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J23" s="9">
         <v>-40.976111456752001</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K23" s="9">
         <v>5.2601750793399997</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L23" s="9">
         <v>-25.344369307160001</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M23" s="9">
         <v>4.0892094817249998</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N23" s="9">
         <v>-35.708628028630997</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O23" s="9">
         <v>4.7227552335240004</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P23" s="9">
         <v>-16.525186398997999</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q23" s="9">
         <v>3.455698159058</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="9">
         <v>224.86876031879299</v>
       </c>
-      <c r="S17" s="6">
+      <c r="U23" s="6">
         <v>0.80754453457099995</v>
       </c>
-      <c r="T17" s="14">
+      <c r="V23" s="14">
         <v>3.5750989999999998</v>
       </c>
-      <c r="U17" s="12">
+      <c r="W23" s="12">
         <v>0.29717700000000002</v>
       </c>
-      <c r="V17" s="14">
+      <c r="X23" s="14">
         <v>3.6154570000000001</v>
       </c>
-      <c r="W17" s="14">
+      <c r="Y23" s="14">
         <v>0.29263899999999998</v>
       </c>
-      <c r="X17" s="14">
+      <c r="Z23" s="14">
         <v>3.5828859999999998</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="AA23" s="14">
         <v>0.29726900000000001</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AB23" s="14">
         <v>3.6607159999999999</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="AC23" s="14">
         <v>0.30050500000000002</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AD23" s="14">
         <v>3.6241409999999998</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AE23" s="14">
         <v>0.29885299999999998</v>
       </c>
-      <c r="AD17" s="14">
+      <c r="AF23" s="14">
         <v>4.0489980000000001</v>
       </c>
-      <c r="AE17" s="14">
+      <c r="AG23" s="14">
         <v>0.33102700000000002</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="13">
         <f t="shared" si="0"/>
         <v>1.2801261738546047E-49</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AK23" s="6">
         <v>-16333.966748000001</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AL23" s="3">
         <f t="shared" si="2"/>
         <v>32775.618919640117</v>
       </c>
-      <c r="AI17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="AM23" s="7"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="9">
+        <v>-19.134791499435</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.175599897989</v>
+      </c>
+      <c r="H24" s="9">
+        <v>35.430141811809001</v>
+      </c>
+      <c r="I24" s="9">
+        <v>-0.175599897989</v>
+      </c>
+      <c r="J24" s="9">
+        <v>21.759839429526998</v>
+      </c>
+      <c r="K24" s="9">
+        <v>-0.175599897989</v>
+      </c>
+      <c r="L24" s="9">
+        <v>20.427213621048999</v>
+      </c>
+      <c r="M24" s="9">
+        <v>-0.175599897989</v>
+      </c>
+      <c r="N24" s="9">
+        <v>24.898231072998001</v>
+      </c>
+      <c r="O24" s="9">
+        <v>-0.20239416563400001</v>
+      </c>
+      <c r="P24" s="9">
+        <v>32.039322304309003</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>-0.48456185161199999</v>
+      </c>
+      <c r="R24" s="9">
+        <v>-3.511E-9</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="9">
+        <v>8.1194955147020007</v>
+      </c>
+      <c r="U24" s="9">
+        <v>5.9996594900000005E-4</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W24" s="14">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="X24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="Z24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="AB24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>1.0831409999999999</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>9.6368999999999996E-2</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>2.8914949999999999</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>0.180451</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5611428326928111E-143</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>-11624.389349999999</v>
+      </c>
+      <c r="AL24" s="9">
+        <f>(LN(3958)*14)-(2*AK24)</f>
+        <v>23364.747617766276</v>
+      </c>
+      <c r="AM24" s="7"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>7.40625</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.23705906223000001</v>
+      </c>
+      <c r="H25" s="9">
+        <v>-10.75</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.63159286334099995</v>
+      </c>
+      <c r="J25" s="9">
+        <v>6.015625</v>
+      </c>
+      <c r="K25" s="9">
+        <v>-0.60847763430500001</v>
+      </c>
+      <c r="L25" s="9">
+        <v>-4.3125</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2.7438523874E-2</v>
+      </c>
+      <c r="N25" s="9">
+        <v>15</v>
+      </c>
+      <c r="O25" s="9">
+        <v>-1.2432686722170001</v>
+      </c>
+      <c r="P25" s="9">
+        <v>31.3125</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>-4.6926654600970004</v>
+      </c>
+      <c r="R25" s="7">
+        <v>1.4600000000000001E-10</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="9">
+        <v>306.36335505178499</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0.806121173907</v>
+      </c>
+      <c r="V25" s="14">
+        <v>28093.736073</v>
+      </c>
+      <c r="W25" s="12">
+        <v>0.107928</v>
+      </c>
+      <c r="X25" s="14">
+        <v>69164.769343000007</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0.114801</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>12426.184802</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>0.111953</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>20379.937909</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>0.10731400000000001</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>27199.374771999999</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>14393.900448</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>0.34157599999999999</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="13">
+        <f t="shared" si="0"/>
+        <v>1.4058578641033829E-2</v>
+      </c>
+      <c r="AK25" s="6">
+        <v>-16945.982171</v>
+      </c>
+      <c r="AL25" s="3">
+        <f>(LN(3958)*14)-(2*AK25)</f>
+        <v>34007.933259766272</v>
+      </c>
+      <c r="AM25" s="7">
+        <f>AL25-AL13</f>
+        <v>1232.3143381261616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="9">
         <v>1.6999999999999999E-11</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="9">
         <v>422.33971309403898</v>
       </c>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="10">
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="10">
         <v>-27854.070602</v>
       </c>
-      <c r="AH18" s="9">
-        <f>(LN(3951)*2)-(2*AG18)</f>
+      <c r="AL26" s="9">
+        <f>(LN(3951)*2)-(2*AK26)</f>
         <v>55724.704651980821</v>
       </c>
-      <c r="AI18" s="9"/>
-    </row>
-    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="AM26" s="9"/>
+    </row>
+    <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F27" s="7">
         <v>444.044990244659</v>
       </c>
-      <c r="R19" s="9">
+      <c r="T27" s="9">
         <v>2501630493.4830298</v>
       </c>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="6">
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="6">
         <v>-48356.458079000004</v>
       </c>
-      <c r="AH19" s="7">
-        <f>(LN(3951)*2)-(2*AG19)</f>
+      <c r="AL27" s="7">
+        <f>(LN(3951)*2)-(2*AK27)</f>
         <v>96729.479605980829</v>
       </c>
-      <c r="AI19" s="7">
-        <f>AH19-AH21</f>
+      <c r="AM27" s="7">
+        <f>AL27-AL29</f>
         <v>33.898238009598572</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="28" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="C28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="9">
         <v>-2.85E-10</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G28" s="9">
         <v>5.8E-11</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="9">
         <v>422.23281870894903</v>
       </c>
-      <c r="S20" s="9">
+      <c r="U28" s="9">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="T20" s="14">
+      <c r="V28" s="14">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="U20" s="14">
+      <c r="W28" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AF20" s="16">
-        <f t="shared" ref="AF20:AF21" si="3">TDIST((ABS(G20)/U20),3950,1)</f>
+      <c r="AJ28" s="16">
+        <f t="shared" ref="AJ28:AJ29" si="3">TDIST((ABS(G28)/W28),3950,1)</f>
         <v>0.49997686281217502</v>
       </c>
-      <c r="AG20" s="10">
+      <c r="AK28" s="10">
         <v>-27854.070602</v>
       </c>
-      <c r="AH20" s="9">
-        <f>(LN(3951)*3)-(2*AG20)</f>
+      <c r="AL28" s="9">
+        <f>(LN(3951)*3)-(2*AK28)</f>
         <v>55732.986375971232</v>
       </c>
-      <c r="AI20" s="9"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="AM28" s="9"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="C29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F29" s="7">
         <v>367.83403012874601</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G29" s="7">
         <v>4.5500549724420001</v>
       </c>
-      <c r="R21" s="9">
+      <c r="T29" s="9">
         <v>2474439276.5205798</v>
       </c>
-      <c r="S21" s="6">
+      <c r="U29" s="6">
         <v>1.0607840522000001E-2</v>
       </c>
-      <c r="T21" s="14">
+      <c r="V29" s="14">
         <v>11.760415</v>
       </c>
-      <c r="U21" s="12">
+      <c r="W29" s="12">
         <v>0.69835800000000003</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AJ29" s="13">
         <f t="shared" si="3"/>
         <v>4.0820058210725381E-11</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AK29" s="6">
         <v>-48335.368097999999</v>
       </c>
-      <c r="AH21" s="3">
-        <f>(LN(3951)*3)-(2*AG21)</f>
+      <c r="AL29" s="3">
+        <f>(LN(3951)*3)-(2*AK29)</f>
         <v>96695.58136797123</v>
       </c>
-      <c r="AI21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="AM29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
         <v>6.364611</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="9">
         <v>6.7770000000000001</v>
       </c>
-      <c r="T22" s="14">
+      <c r="V30" s="14">
         <v>4.1378289999999998E-2</v>
       </c>
-      <c r="U22" s="14"/>
-      <c r="AG22" s="10">
+      <c r="W30" s="14"/>
+      <c r="AK30" s="10">
         <v>-9404.7340000000004</v>
       </c>
-      <c r="AH22" s="10">
+      <c r="AL30" s="10">
         <v>18826.04</v>
       </c>
-      <c r="AI22" s="9">
-        <f>AH22-AH25</f>
+      <c r="AM30" s="9">
+        <f>AL30-AL33</f>
         <v>76779.429999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="10">
+    <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F31" s="9">
         <v>7.0502440000000002</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="9">
         <v>2.8290000000000002</v>
       </c>
-      <c r="T23" s="14">
+      <c r="V31" s="14">
         <v>0.1274517</v>
       </c>
-      <c r="U23" s="14"/>
-      <c r="AG23" s="9">
+      <c r="W31" s="14"/>
+      <c r="AK31" s="9">
         <v>28501.74</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AL31" s="10">
         <v>-56986.92</v>
       </c>
-      <c r="AI23" s="9">
-        <f>AH23-AH25</f>
+      <c r="AM31" s="9">
+        <f>AL31-AL33</f>
         <v>966.47000000000116</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
         <v>7.8643660000000004</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G32" s="7">
         <v>-9.5146999999999995E-2</v>
       </c>
-      <c r="R24" s="9">
+      <c r="T32" s="9">
         <v>6.3959999999999999</v>
       </c>
-      <c r="S24" s="7">
+      <c r="U32" s="7">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="T24" s="14">
+      <c r="V32" s="14">
         <v>0.10543636000000001</v>
       </c>
-      <c r="U24" s="12">
+      <c r="W32" s="12">
         <v>6.1838300000000004E-3</v>
       </c>
-      <c r="AF24" s="13">
+      <c r="AJ32" s="13">
         <v>6.2699218823193498E-52</v>
       </c>
-      <c r="AG24" s="10">
+      <c r="AK32" s="10">
         <v>-9293.9079999999994</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AL32" s="6">
         <v>18612.66</v>
       </c>
-      <c r="AI24" s="7">
-        <f>AH24-AH25</f>
+      <c r="AM32" s="7">
+        <f>AL32-AL33</f>
         <v>76566.05</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.6">
-      <c r="A25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.6">
+      <c r="A33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="C33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F33" s="7">
         <v>8.4589009999999991</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G33" s="7">
         <v>-0.20138</v>
       </c>
-      <c r="R25" s="9">
+      <c r="T33" s="9">
         <v>2.2069999999999999</v>
       </c>
-      <c r="S25" s="7">
+      <c r="U33" s="7">
         <v>-0.186</v>
       </c>
-      <c r="T25" s="14">
+      <c r="V33" s="14">
         <v>0.12021635</v>
       </c>
-      <c r="U25" s="12">
+      <c r="W33" s="12">
         <v>6.0287800000000001E-3</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AJ33" s="13">
         <v>9.9824783410950406E-216</v>
       </c>
-      <c r="AG25" s="9">
+      <c r="AK33" s="9">
         <v>28989.119999999999</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AL33" s="6">
         <v>-57953.39</v>
       </c>
-      <c r="AI25" s="7">
+      <c r="AM33" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2982,12 +3751,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -3157,6 +3920,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
@@ -3166,22 +3935,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3197,4 +3950,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/surya_punctuation_4_16/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_16/surya_results_punctuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95225742-50F6-4344-908D-16D8E640D27C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F4CB5-40E2-437B-8772-97407793FC6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
   </bookViews>
@@ -283,9 +283,6 @@
     <t>s11</t>
   </si>
   <si>
-    <t>se[0-11]</t>
-  </si>
-  <si>
     <t>Intercept of the fit line of the reference continent</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>s13</t>
+  </si>
+  <si>
+    <t>se[0-13]</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.6">
@@ -913,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.6">
@@ -923,27 +923,27 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.6">
@@ -956,10 +956,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.6">
@@ -967,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
@@ -975,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.6">
@@ -991,7 +991,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.6">
@@ -999,7 +999,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.6">
@@ -1007,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.6">
@@ -1015,7 +1015,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.6">
@@ -1023,7 +1023,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.6">
@@ -1031,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.6">
@@ -1039,7 +1039,7 @@
         <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.6">
@@ -1047,7 +1047,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.6">
@@ -1055,23 +1055,23 @@
         <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.6">
@@ -1092,7 +1092,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>16</v>
@@ -1192,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -1204,7 +1204,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>35</v>
@@ -1243,10 +1243,10 @@
         <v>46</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>58</v>
       </c>
       <c r="AH1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>20</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>25</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1383,7 +1383,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK4" s="9">
         <v>-11140.480453</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -1466,16 +1466,16 @@
     </row>
     <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK6" s="9">
         <v>-11140.480453</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK8" s="9">
         <v>-11140.480453</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>25</v>
@@ -1699,7 +1699,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="9">
         <v>-0.188942814954</v>
@@ -1734,19 +1734,19 @@
         <v>5.2503499393000003E-2</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W10" s="14">
         <v>0</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD10" s="14">
         <v>0.37487799999999999</v>
@@ -1756,7 +1756,7 @@
         <v>0.91162699999999997</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK10" s="9">
         <v>-11033.764088</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
@@ -1868,7 +1868,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="9">
         <v>0.266589886655</v>
@@ -1915,25 +1915,25 @@
         <v>5.4135907084999997E-2</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W12" s="14">
         <v>7.5719999999999997E-3</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y12" s="14">
         <v>7.5719999999999997E-3</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="14">
         <v>7.5719999999999997E-3</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC12" s="14">
         <v>7.5719999999999997E-3</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>25</v>
@@ -2092,7 +2092,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -2177,7 +2177,7 @@
       <c r="AH14" s="14"/>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK14" s="10">
         <v>-10980.062569</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>25</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>25</v>
@@ -2313,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       <c r="AH16" s="14"/>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK16" s="10">
         <v>-10980.062569</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>25</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="18" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>25</v>
@@ -2534,7 +2534,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -2619,7 +2619,7 @@
       <c r="AH18" s="14"/>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK18" s="10">
         <v>-10980.062569</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>25</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="20" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>25</v>
@@ -2755,7 +2755,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="9">
         <v>-1.244540593393</v>
@@ -2802,7 +2802,7 @@
         <v>2.5729044592000001E-2</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W20" s="14">
         <v>7.1110000000000001E-3</v>
@@ -2814,19 +2814,19 @@
         <v>0.115518</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA20" s="14">
         <v>7.1110000000000001E-3</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC20" s="14">
         <v>7.1110000000000001E-3</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE20" s="14">
         <v>7.1110000000000001E-3</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>25</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="22" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A22" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>25</v>
@@ -2977,7 +2977,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9">
         <v>-0.32263351431499998</v>
@@ -3024,7 +3024,7 @@
         <v>6.6409650284000005E-2</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W22" s="14">
         <v>7.4580000000000002E-3</v>
@@ -3036,19 +3036,19 @@
         <v>0.11307200000000001</v>
       </c>
       <c r="Z22" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA22" s="14">
         <v>7.4580000000000002E-3</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC22" s="14">
         <v>7.4580000000000002E-3</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE22" s="14">
         <v>7.4580000000000002E-3</v>
@@ -3076,10 +3076,10 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>25</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>25</v>
@@ -3199,7 +3199,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="9">
         <v>-19.134791499435</v>
@@ -3248,25 +3248,25 @@
         <v>5.9996594900000005E-4</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W24" s="14">
         <v>6.6100000000000004E-3</v>
       </c>
       <c r="X24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y24" s="14">
         <v>6.6100000000000004E-3</v>
       </c>
       <c r="Z24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA24" s="14">
         <v>6.6100000000000004E-3</v>
       </c>
       <c r="AB24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC24" s="14">
         <v>6.6100000000000004E-3</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>25</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="26" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A26" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="9">
         <v>1.6999999999999999E-11</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>26</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="28" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>11</v>
@@ -3492,7 +3492,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="9">
         <v>-2.85E-10</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>11</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="30" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>25</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A31" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>25</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>11</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>11</v>
@@ -3742,12 +3742,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3921,15 +3918,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3953,17 +3961,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_4_16/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_16/surya_results_punctuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F4CB5-40E2-437B-8772-97407793FC6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8BC113-2407-4987-B4F0-AECB5A4DB514}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <col min="17" max="17" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="4.86328125" style="6" customWidth="1"/>
     <col min="20" max="20" width="13.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.76953125" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
@@ -2022,7 +2022,7 @@
       <c r="T13" s="9">
         <v>224.86876049770001</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="7">
         <v>0.80754453441899998</v>
       </c>
       <c r="V13" s="14">
@@ -2245,7 +2245,7 @@
       <c r="T15" s="9">
         <v>224.86876049921599</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="7">
         <v>0.807544534418</v>
       </c>
       <c r="V15" s="14">
@@ -2466,7 +2466,7 @@
       <c r="T17" s="9">
         <v>224.86876049739499</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="7">
         <v>0.80754453441899998</v>
       </c>
       <c r="V17" s="14">
@@ -2687,7 +2687,7 @@
       <c r="T19" s="9">
         <v>224.868760497686</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="7">
         <v>0.80754453441899998</v>
       </c>
       <c r="V19" s="14">
@@ -2909,7 +2909,7 @@
       <c r="T21" s="9">
         <v>224.86876050874</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="7">
         <v>0.807544534408</v>
       </c>
       <c r="V21" s="14">
@@ -3131,7 +3131,7 @@
       <c r="T23" s="9">
         <v>224.86876031879299</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="7">
         <v>0.80754453457099995</v>
       </c>
       <c r="V23" s="14">
@@ -3359,7 +3359,7 @@
       <c r="T25" s="9">
         <v>306.36335505178499</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="7">
         <v>0.806121173907</v>
       </c>
       <c r="V25" s="14">
@@ -3549,7 +3549,7 @@
       <c r="T29" s="9">
         <v>2474439276.5205798</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="7">
         <v>1.0607840522000001E-2</v>
       </c>
       <c r="V29" s="14">
@@ -3742,9 +3742,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3918,26 +3921,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3961,9 +3953,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_4_16/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_16/surya_results_punctuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8BC113-2407-4987-B4F0-AECB5A4DB514}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45465B3F-010E-40A2-A95D-AE875AAA1FC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
   </bookViews>
@@ -1290,10 +1290,10 @@
       <c r="AG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="5" t="s">
         <v>96</v>
       </c>
       <c r="AJ1" s="5" t="s">
@@ -3751,6 +3751,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -3920,12 +3926,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
@@ -3935,6 +3935,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3950,20 +3966,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/surya_punctuation_4_16/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_16/surya_results_punctuation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45465B3F-010E-40A2-A95D-AE875AAA1FC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={06783A46-CE3C-47DF-9BA1-AB612B0AC7E4}</author>
     <author>tc={36E4C5D5-CA32-4AD8-AB0C-E11E9EE8B677}</author>
@@ -41,44 +40,89 @@
     <author>tc={928E7E29-70AC-4F12-A8D5-058B2A8A3A80}</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{06783A46-CE3C-47DF-9BA1-AB612B0AC7E4}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{36E4C5D5-CA32-4AD8-AB0C-E11E9EE8B677}">
+    <comment ref="F12" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="2" shapeId="0" xr:uid="{448B0EDA-FD60-414E-B5B5-EB0940E2EF0B}">
+    <comment ref="V12" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     There's an error (?).</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="3" shapeId="0" xr:uid="{8839BA09-9E93-4123-BDCE-3C0E0817BD7E}">
+    <comment ref="F14" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="AK14" authorId="4" shapeId="0" xr:uid="{928E7E29-70AC-4F12-A8D5-058B2A8A3A80}">
+    <comment ref="AK14" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This log-likelihood value differs from the one for the regression with Africa as the reference continent.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -403,7 +447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -851,19 +895,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65725C74-E320-49C2-9041-7CC34A4B5CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -871,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -879,7 +923,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -887,7 +931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -895,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -903,12 +947,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -916,37 +960,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -954,7 +998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -962,7 +1006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -970,7 +1014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -978,7 +1022,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -986,7 +1030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -994,7 +1038,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1002,7 +1046,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1010,7 +1054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1018,7 +1062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1026,7 +1070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1034,7 +1078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1042,7 +1086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
@@ -1050,7 +1094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1058,7 +1102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -1066,7 +1110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -1074,7 +1118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -1098,7 +1142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1106,7 +1150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -1138,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACDFB8-7AE7-4540-B402-8A2C562F39AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1148,49 +1192,49 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.86328125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="13.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.2265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.2265625" style="10" customWidth="1"/>
-    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5.28515625" style="10" customWidth="1"/>
+    <col min="36" max="36" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
@@ -1309,7 +1353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -1340,7 +1384,7 @@
       </c>
       <c r="AM2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
@@ -1360,7 +1404,7 @@
         <v>1164.5512485325801</v>
       </c>
       <c r="AJ3" s="13"/>
-      <c r="AK3" s="7">
+      <c r="AK3" s="9">
         <v>-19588.078933000001</v>
       </c>
       <c r="AL3" s="7">
@@ -1372,7 +1416,7 @@
         <v>6417.1059326122122</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
@@ -1417,7 +1461,7 @@
       </c>
       <c r="AM4" s="9"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -1452,7 +1496,7 @@
         <f t="shared" ref="AJ5:AJ25" si="0">TDIST((ABS(G5)/W5),3957,1)</f>
         <v>1.2733305792861355E-59</v>
       </c>
-      <c r="AK5" s="7">
+      <c r="AK5" s="9">
         <v>-19456.183266</v>
       </c>
       <c r="AL5" s="3">
@@ -1464,7 +1508,7 @@
         <v>6161.5980927383789</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
@@ -1514,7 +1558,7 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -1557,7 +1601,7 @@
         <f t="shared" si="0"/>
         <v>1.7350871431223462E-292</v>
       </c>
-      <c r="AK7" s="7">
+      <c r="AK7" s="9">
         <v>-18764.676296000001</v>
       </c>
       <c r="AL7" s="3">
@@ -1570,7 +1614,7 @@
       </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>71</v>
       </c>
@@ -1625,7 +1669,7 @@
       </c>
       <c r="AM8" s="9"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>71</v>
       </c>
@@ -1672,7 +1716,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK9" s="7">
+      <c r="AK9" s="9">
         <v>-18017.414850000001</v>
       </c>
       <c r="AL9" s="3">
@@ -1685,7 +1729,7 @@
       </c>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
@@ -1767,7 +1811,7 @@
       </c>
       <c r="AM10" s="9"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>71</v>
       </c>
@@ -1841,7 +1885,7 @@
         <f t="shared" si="0"/>
         <v>6.6040727230367011E-150</v>
       </c>
-      <c r="AK11" s="7">
+      <c r="AK11" s="9">
         <v>-18278.548159999998</v>
       </c>
       <c r="AL11" s="7">
@@ -1854,7 +1898,7 @@
       </c>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>71</v>
       </c>
@@ -1965,7 +2009,7 @@
       </c>
       <c r="AM12" s="9"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -2067,7 +2111,7 @@
         <f t="shared" ref="AJ13" si="1">TDIST((ABS(G13)/W13),3957,1)</f>
         <v>4.1451711243693599E-3</v>
       </c>
-      <c r="AK13" s="7">
+      <c r="AK13" s="9">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL13" s="3">
@@ -2078,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>71</v>
       </c>
@@ -2188,7 +2232,7 @@
       </c>
       <c r="AM14" s="9"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -2290,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>1.5723511898545553E-131</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AK15" s="10">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL15" s="3">
@@ -2299,7 +2343,7 @@
       </c>
       <c r="AM15" s="7"/>
     </row>
-    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -2409,7 +2453,7 @@
       </c>
       <c r="AM16" s="9"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -2511,7 +2555,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AK17" s="10">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL17" s="3">
@@ -2520,7 +2564,7 @@
       </c>
       <c r="AM17" s="7"/>
     </row>
-    <row r="18" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
@@ -2630,7 +2674,7 @@
       </c>
       <c r="AM18" s="9"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
@@ -2732,7 +2776,7 @@
         <f t="shared" si="0"/>
         <v>1.037361845050249E-147</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AK19" s="10">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL19" s="3">
@@ -2741,7 +2785,7 @@
       </c>
       <c r="AM19" s="7"/>
     </row>
-    <row r="20" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
@@ -2852,7 +2896,7 @@
       </c>
       <c r="AM20" s="9"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
@@ -2954,7 +2998,7 @@
         <f t="shared" si="0"/>
         <v>2.0493816263197046E-40</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AK21" s="10">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL21" s="3">
@@ -2963,7 +3007,7 @@
       </c>
       <c r="AM21" s="7"/>
     </row>
-    <row r="22" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
@@ -3074,7 +3118,7 @@
       </c>
       <c r="AM22" s="9"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
@@ -3176,7 +3220,7 @@
         <f t="shared" si="0"/>
         <v>1.2801261738546047E-49</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AK23" s="10">
         <v>-16333.966748000001</v>
       </c>
       <c r="AL23" s="3">
@@ -3185,7 +3229,7 @@
       </c>
       <c r="AM23" s="7"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
@@ -3300,7 +3344,7 @@
       </c>
       <c r="AM24" s="7"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>71</v>
       </c>
@@ -3406,7 +3450,7 @@
         <f t="shared" si="0"/>
         <v>1.4058578641033829E-2</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AK25" s="10">
         <v>-16945.982171</v>
       </c>
       <c r="AL25" s="3">
@@ -3418,7 +3462,7 @@
         <v>1232.3143381261616</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>71</v>
       </c>
@@ -3449,7 +3493,7 @@
       </c>
       <c r="AM26" s="9"/>
     </row>
-    <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
@@ -3469,7 +3513,7 @@
         <v>2501630493.4830298</v>
       </c>
       <c r="AJ27" s="13"/>
-      <c r="AK27" s="6">
+      <c r="AK27" s="10">
         <v>-48356.458079000004</v>
       </c>
       <c r="AL27" s="7">
@@ -3481,7 +3525,7 @@
         <v>33.898238009598572</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>71</v>
       </c>
@@ -3527,7 +3571,7 @@
       </c>
       <c r="AM28" s="9"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -3562,7 +3606,7 @@
         <f t="shared" si="3"/>
         <v>4.0820058210725381E-11</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AK29" s="10">
         <v>-48335.368097999999</v>
       </c>
       <c r="AL29" s="3">
@@ -3573,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>72</v>
       </c>
@@ -3609,7 +3653,7 @@
         <v>76779.429999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
@@ -3645,7 +3689,7 @@
         <v>966.47000000000116</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>72</v>
       </c>
@@ -3690,7 +3734,7 @@
         <v>76566.05</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
@@ -3742,21 +3786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -3926,10 +3955,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3951,19 +4005,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_4_16/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_16/surya_results_punctuation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_4_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -902,8 +902,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -1194,43 +1194,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.28515625" style="10" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="40" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -2223,7 +2223,7 @@
       <c r="AJ14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AK14" s="10">
+      <c r="AK14" s="9">
         <v>-10980.062569</v>
       </c>
       <c r="AL14" s="9">
@@ -2334,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>1.5723511898545553E-131</v>
       </c>
-      <c r="AK15" s="10">
+      <c r="AK15" s="9">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL15" s="3">
@@ -2444,7 +2444,7 @@
       <c r="AJ16" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AK16" s="10">
+      <c r="AK16" s="9">
         <v>-10980.062569</v>
       </c>
       <c r="AL16" s="9">
@@ -2555,7 +2555,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="10">
+      <c r="AK17" s="9">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL17" s="3">
@@ -2665,7 +2665,7 @@
       <c r="AJ18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AK18" s="10">
+      <c r="AK18" s="9">
         <v>-10980.062569</v>
       </c>
       <c r="AL18" s="9">
@@ -2776,7 +2776,7 @@
         <f t="shared" si="0"/>
         <v>1.037361845050249E-147</v>
       </c>
-      <c r="AK19" s="10">
+      <c r="AK19" s="9">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL19" s="3">
@@ -2887,7 +2887,7 @@
         <f t="shared" si="0"/>
         <v>3.2334077389298879E-12</v>
       </c>
-      <c r="AK20" s="10">
+      <c r="AK20" s="9">
         <v>-11090.306035</v>
       </c>
       <c r="AL20" s="9">
@@ -2998,7 +2998,7 @@
         <f t="shared" si="0"/>
         <v>2.0493816263197046E-40</v>
       </c>
-      <c r="AK21" s="10">
+      <c r="AK21" s="9">
         <v>-16333.966748999999</v>
       </c>
       <c r="AL21" s="3">
@@ -3109,7 +3109,7 @@
         <f t="shared" si="0"/>
         <v>6.3550737978396738E-3</v>
       </c>
-      <c r="AK22" s="10">
+      <c r="AK22" s="9">
         <v>-11004.489055</v>
       </c>
       <c r="AL22" s="9">
@@ -3220,7 +3220,7 @@
         <f t="shared" si="0"/>
         <v>1.2801261738546047E-49</v>
       </c>
-      <c r="AK23" s="10">
+      <c r="AK23" s="9">
         <v>-16333.966748000001</v>
       </c>
       <c r="AL23" s="3">
@@ -3335,7 +3335,7 @@
         <f t="shared" si="0"/>
         <v>1.5611428326928111E-143</v>
       </c>
-      <c r="AK24" s="10">
+      <c r="AK24" s="9">
         <v>-11624.389349999999</v>
       </c>
       <c r="AL24" s="9">
@@ -3450,7 +3450,7 @@
         <f t="shared" si="0"/>
         <v>1.4058578641033829E-2</v>
       </c>
-      <c r="AK25" s="10">
+      <c r="AK25" s="9">
         <v>-16945.982171</v>
       </c>
       <c r="AL25" s="3">
@@ -3484,7 +3484,7 @@
         <v>422.33971309403898</v>
       </c>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="10">
+      <c r="AK26" s="9">
         <v>-27854.070602</v>
       </c>
       <c r="AL26" s="9">
@@ -3513,7 +3513,7 @@
         <v>2501630493.4830298</v>
       </c>
       <c r="AJ27" s="13"/>
-      <c r="AK27" s="10">
+      <c r="AK27" s="9">
         <v>-48356.458079000004</v>
       </c>
       <c r="AL27" s="7">
@@ -3562,7 +3562,7 @@
         <f t="shared" ref="AJ28:AJ29" si="3">TDIST((ABS(G28)/W28),3950,1)</f>
         <v>0.49997686281217502</v>
       </c>
-      <c r="AK28" s="10">
+      <c r="AK28" s="9">
         <v>-27854.070602</v>
       </c>
       <c r="AL28" s="9">
@@ -3606,7 +3606,7 @@
         <f t="shared" si="3"/>
         <v>4.0820058210725381E-11</v>
       </c>
-      <c r="AK29" s="10">
+      <c r="AK29" s="9">
         <v>-48335.368097999999</v>
       </c>
       <c r="AL29" s="3">
@@ -3642,7 +3642,7 @@
         <v>4.1378289999999998E-2</v>
       </c>
       <c r="W30" s="14"/>
-      <c r="AK30" s="10">
+      <c r="AK30" s="9">
         <v>-9404.7340000000004</v>
       </c>
       <c r="AL30" s="10">
@@ -3723,7 +3723,7 @@
       <c r="AJ32" s="13">
         <v>6.2699218823193498E-52</v>
       </c>
-      <c r="AK32" s="10">
+      <c r="AK32" s="9">
         <v>-9293.9079999999994</v>
       </c>
       <c r="AL32" s="6">
@@ -3786,6 +3786,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -3955,35 +3970,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4005,9 +3995,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_4_16/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_16/surya_results_punctuation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_4_16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC680CC-6824-4368-BCF9-012EA042B5AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={06783A46-CE3C-47DF-9BA1-AB612B0AC7E4}</author>
     <author>tc={36E4C5D5-CA32-4AD8-AB0C-E11E9EE8B677}</author>
@@ -40,89 +41,44 @@
     <author>tc={928E7E29-70AC-4F12-A8D5-058B2A8A3A80}</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0">
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="2" shapeId="0">
+    <comment ref="V12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     There's an error (?).</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="3" shapeId="0">
+    <comment ref="F14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="AK14" authorId="4" shapeId="0">
+    <comment ref="AK14" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This log-likelihood value differs from the one for the regression with Africa as the reference continent.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -447,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -895,19 +851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -915,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -923,7 +879,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -931,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -939,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -947,12 +903,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -960,37 +916,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -998,7 +954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1006,7 +962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1014,7 +970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1022,7 +978,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1030,7 +986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1054,7 +1010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1078,7 +1034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
@@ -1094,7 +1050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -1110,7 +1066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -1118,7 +1074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -1142,7 +1098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
@@ -1166,7 +1122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -1182,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1192,49 +1148,48 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="6.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.76953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.2265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.76953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
@@ -1353,7 +1308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -1384,7 +1339,7 @@
       </c>
       <c r="AM2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
@@ -1416,7 +1371,7 @@
         <v>6417.1059326122122</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
@@ -1461,7 +1416,7 @@
       </c>
       <c r="AM4" s="9"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -1508,7 +1463,7 @@
         <v>6161.5980927383789</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
@@ -1558,7 +1513,7 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -1614,7 +1569,7 @@
       </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A8" s="10" t="s">
         <v>71</v>
       </c>
@@ -1669,7 +1624,7 @@
       </c>
       <c r="AM8" s="9"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>71</v>
       </c>
@@ -1729,7 +1684,7 @@
       </c>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
@@ -1811,7 +1766,7 @@
       </c>
       <c r="AM10" s="9"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>71</v>
       </c>
@@ -1898,7 +1853,7 @@
       </c>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="10" t="s">
         <v>71</v>
       </c>
@@ -2009,7 +1964,7 @@
       </c>
       <c r="AM12" s="9"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -2122,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="10" t="s">
         <v>71</v>
       </c>
@@ -2232,7 +2187,7 @@
       </c>
       <c r="AM14" s="9"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -2343,7 +2298,7 @@
       </c>
       <c r="AM15" s="7"/>
     </row>
-    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="10" t="s">
         <v>71</v>
       </c>
@@ -2453,7 +2408,7 @@
       </c>
       <c r="AM16" s="9"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -2564,7 +2519,7 @@
       </c>
       <c r="AM17" s="7"/>
     </row>
-    <row r="18" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
@@ -2674,7 +2629,7 @@
       </c>
       <c r="AM18" s="9"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
@@ -2785,7 +2740,7 @@
       </c>
       <c r="AM19" s="7"/>
     </row>
-    <row r="20" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
@@ -2896,7 +2851,7 @@
       </c>
       <c r="AM20" s="9"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
@@ -3007,7 +2962,7 @@
       </c>
       <c r="AM21" s="7"/>
     </row>
-    <row r="22" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
@@ -3118,7 +3073,7 @@
       </c>
       <c r="AM22" s="9"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
@@ -3229,7 +3184,7 @@
       </c>
       <c r="AM23" s="7"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
@@ -3344,7 +3299,7 @@
       </c>
       <c r="AM24" s="7"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>71</v>
       </c>
@@ -3462,7 +3417,7 @@
         <v>1232.3143381261616</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A26" s="10" t="s">
         <v>71</v>
       </c>
@@ -3493,7 +3448,7 @@
       </c>
       <c r="AM26" s="9"/>
     </row>
-    <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
@@ -3525,7 +3480,7 @@
         <v>33.898238009598572</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A28" s="10" t="s">
         <v>71</v>
       </c>
@@ -3571,7 +3526,7 @@
       </c>
       <c r="AM28" s="9"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -3617,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>72</v>
       </c>
@@ -3653,7 +3608,7 @@
         <v>76779.429999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
@@ -3689,7 +3644,7 @@
         <v>966.47000000000116</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>72</v>
       </c>
@@ -3734,7 +3689,7 @@
         <v>76566.05</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
@@ -3795,12 +3750,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -3970,6 +3919,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
@@ -3979,22 +3934,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4010,4 +3949,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>